--- a/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
+++ b/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmelv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmelv\Desktop\Test\test\ACR-2017-18\Seminar_1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D1B4C-C419-4DBD-BB9F-20795C22AA68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76241DD1-3562-45B6-92C4-2E9AD8E9816A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EADE4F29-8DB3-4D1A-95A6-17260734F1ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>THREADS</t>
   </si>
   <si>
-    <t>Avg [microsec]</t>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
     <t>OS:</t>
   </si>
   <si>
@@ -55,6 +49,18 @@
   </si>
   <si>
     <t>16GB</t>
+  </si>
+  <si>
+    <t>WITH</t>
+  </si>
+  <si>
+    <t>TIMER</t>
+  </si>
+  <si>
+    <t>micros</t>
+  </si>
+  <si>
+    <t>milis</t>
   </si>
 </sst>
 </file>
@@ -79,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,38 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,314 +412,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CE5ED9-02D0-46C3-B49D-4FB563A53D3C}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03FAF9-6850-43EC-92F2-CDD852776C77}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="C2">
+        <v>504</v>
+      </c>
+      <c r="D2">
+        <f>C2/1000</f>
+        <v>0.504</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="C3">
+        <v>562</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">C3/1000</f>
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>641</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="G1" s="2">
+      <c r="C5">
+        <v>926</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C6">
+        <v>1145</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2105</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2">
-        <v>1167</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1779</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2076</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3110</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3931</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
-        <v>1192</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1997</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2749</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3277</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4232</v>
-      </c>
-      <c r="I3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>1472</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1685</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2315</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3404</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3749</v>
-      </c>
-      <c r="I4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>1251</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1556</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2386</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3511</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4423</v>
-      </c>
-      <c r="I5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>1182</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1890</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2459</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2814</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4182</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>1356</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1633</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1973</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3121</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5419</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>1382</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3226</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1939</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2868</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3997</v>
-      </c>
-      <c r="I8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>1232</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1726</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1952</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3210</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4035</v>
-      </c>
-      <c r="I9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <v>1238</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1723</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1945</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2823</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3567</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
-        <v>1534</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1839</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2125</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2840</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3887</v>
-      </c>
-      <c r="I11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
-        <v>1185</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1568</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2531</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3200</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3778</v>
-      </c>
-      <c r="I12" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>1290.090909090909</v>
-      </c>
-      <c r="D13" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>1874.7272727272727</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>2222.7272727272725</v>
-      </c>
-      <c r="F13" s="2">
-        <f>AVERAGE(F2:F12)</f>
-        <v>3107.090909090909</v>
-      </c>
-      <c r="G13" s="2">
-        <f>AVERAGE(G2:G12)</f>
-        <v>4109.090909090909</v>
-      </c>
-      <c r="I13">
-        <f>AVERAGE(I2:I12)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C10">
+        <v>1857806</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D15" si="1">C10/1000</f>
+        <v>1857.806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C11">
+        <v>1335151</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1335.1510000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C12">
+        <v>1074504</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1074.5039999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C13">
+        <v>869582</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>869.58199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
+      <c r="C14">
+        <v>859726</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>859.726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>840759</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>840.75900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
+++ b/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmelv\Desktop\Test\test\ACR-2017-18\Seminar_1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76241DD1-3562-45B6-92C4-2E9AD8E9816A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC179D7-5772-47E1-B5F7-6149CB5FB974}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EADE4F29-8DB3-4D1A-95A6-17260734F1ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>THREADS</t>
   </si>
@@ -48,9 +48,6 @@
     <t>RAM:</t>
   </si>
   <si>
-    <t>16GB</t>
-  </si>
-  <si>
     <t>WITH</t>
   </si>
   <si>
@@ -61,6 +58,18 @@
   </si>
   <si>
     <t>milis</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>bez time</t>
+  </si>
+  <si>
+    <t>16 GB (8x2) DDR3 1066Mhz</t>
+  </si>
+  <si>
+    <t>micro</t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,12 +102,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,23 +444,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03FAF9-6850-43EC-92F2-CDD852776C77}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,14 +477,11 @@
         <f>C2/1000</f>
         <v>0.504</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
@@ -461,14 +492,11 @@
         <f t="shared" ref="D3:D7" si="0">C3/1000</f>
         <v>0.56200000000000006</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -479,11 +507,11 @@
         <f t="shared" si="0"/>
         <v>0.64100000000000001</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6</v>
       </c>
@@ -494,14 +522,11 @@
         <f t="shared" si="0"/>
         <v>0.92600000000000005</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8</v>
       </c>
@@ -512,8 +537,11 @@
         <f t="shared" si="0"/>
         <v>1.145</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>16</v>
       </c>
@@ -524,8 +552,11 @@
         <f t="shared" si="0"/>
         <v>2.105</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -540,9 +571,9 @@
         <v>1857.806</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -555,9 +586,9 @@
         <v>1335.1510000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -570,7 +601,7 @@
         <v>1074.5039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
@@ -581,8 +612,11 @@
         <f t="shared" si="1"/>
         <v>869.58199999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>830530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -593,8 +627,11 @@
         <f t="shared" si="1"/>
         <v>859.726</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>849605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>16</v>
       </c>
@@ -605,8 +642,111 @@
         <f t="shared" si="1"/>
         <v>840.75900000000001</v>
       </c>
+      <c r="F15">
+        <v>864377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f>AVERAGE(C18:C26)</f>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
+++ b/Seminar_1/docs/Task1_Timings_and_Specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmelv\Desktop\Test\test\ACR-2017-18\Seminar_1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmelv\Desktop\Test\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC179D7-5772-47E1-B5F7-6149CB5FB974}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534D1AD-30F1-4FC5-BE49-0BA7DB7FA95A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EADE4F29-8DB3-4D1A-95A6-17260734F1ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>THREADS</t>
   </si>
@@ -48,6 +48,9 @@
     <t>RAM:</t>
   </si>
   <si>
+    <t>16GB</t>
+  </si>
+  <si>
     <t>WITH</t>
   </si>
   <si>
@@ -60,16 +63,13 @@
     <t>milis</t>
   </si>
   <si>
-    <t>Seq</t>
-  </si>
-  <si>
-    <t>bez time</t>
-  </si>
-  <si>
-    <t>16 GB (8x2) DDR3 1066Mhz</t>
-  </si>
-  <si>
-    <t>micro</t>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>no time</t>
+  </si>
+  <si>
+    <t>with time</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,25 +111,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,26 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03FAF9-6850-43EC-92F2-CDD852776C77}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -471,282 +456,289 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="D2">
         <f>C2/1000</f>
-        <v>0.504</v>
-      </c>
-      <c r="F2">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3/1000</f>
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="F3">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D8" si="0">C3/1000</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>46</v>
+      </c>
+      <c r="S3">
+        <v>3567304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>641</v>
+        <v>821</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="F4">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>3643921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>926</v>
+        <v>865</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="F5">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>3522612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1145</v>
+        <v>1014</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.145</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.014</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="S6">
+        <v>3525291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2105</v>
+        <v>1468</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.105</v>
-      </c>
-      <c r="F7">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>1.468</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>3533605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1716</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.716</v>
+      </c>
+      <c r="O8">
+        <v>34</v>
+      </c>
+      <c r="S8">
+        <v>3522330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>27</v>
+      </c>
+      <c r="S9">
+        <v>3549101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>32</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3534809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>1857806</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D15" si="1">C10/1000</f>
-        <v>1857.806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
       <c r="C11">
-        <v>1335151</v>
+        <v>1911052</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1335.1510000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D11:D17" si="1">C11/1000</f>
+        <v>1911.0519999999999</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGE(O3:O10)</f>
+        <v>31</v>
+      </c>
+      <c r="P11">
+        <f>O11/1000</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="S11">
+        <f>AVERAGE(S3:S10)</f>
+        <v>3549871.625</v>
+      </c>
+      <c r="T11">
+        <f>S11/1000</f>
+        <v>3549.8716250000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1074504</v>
+        <v>1355734</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1074.5039999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1355.7339999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>869582</v>
+        <v>1083213</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>869.58199999999999</v>
-      </c>
-      <c r="F13">
-        <v>830530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1083.213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>859726</v>
+        <v>822291</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>859.726</v>
-      </c>
-      <c r="F14">
-        <v>849605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>822.29100000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>840759</v>
+        <v>849665</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>840.75900000000001</v>
-      </c>
-      <c r="F15">
-        <v>864377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+        <v>849.66499999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>34</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>69</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
-        <f>AVERAGE(C18:C26)</f>
-        <v>44.333333333333336</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+      <c r="C16">
+        <v>833429</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>833.42899999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>833935</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>833.93499999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>